--- a/StudentData/Assessments/Unit1/1.2.7/hobby_store_credit_sales.xlsx
+++ b/StudentData/Assessments/Unit1/1.2.7/hobby_store_credit_sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia\Desktop\SEI Work\Sophia\BDA\1.2.7 docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit1/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9EAB66DA-42C2-4B42-A7B5-E6BD2BB9C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD4460E-65F8-4F0E-91AD-DC5EEE3950B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{24F13671-4913-4699-8BB3-EDA940613BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66240" yWindow="3225" windowWidth="13980" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hobby Store Credit Sales" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,16 +499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75">
+    <row r="1" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -524,7 +522,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -532,7 +530,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -540,7 +538,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -548,7 +546,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -556,7 +554,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -564,7 +562,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -572,7 +570,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -580,7 +578,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -588,7 +586,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -596,7 +594,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -604,7 +602,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -612,7 +610,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -620,7 +618,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -628,7 +626,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -636,7 +634,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -644,7 +642,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -652,7 +650,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -660,7 +658,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -668,7 +666,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -676,7 +674,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -684,7 +682,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -692,7 +690,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -700,7 +698,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -708,7 +706,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -716,7 +714,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -724,7 +722,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -732,7 +730,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -740,7 +738,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -748,7 +746,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -762,6 +760,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1025,15 +1032,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1049,13 +1047,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D99DE3E-44A3-40C9-B3E4-14E466E92975}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CDE407-D07E-4BD9-AEBF-278EFAA435BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CDE407-D07E-4BD9-AEBF-278EFAA435BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D99DE3E-44A3-40C9-B3E4-14E466E92975}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA17531-6186-45D0-AC08-EB0ADB0205B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA17531-6186-45D0-AC08-EB0ADB0205B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>